--- a/Schedule Plan.xlsx
+++ b/Schedule Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ED8272-E744-4197-B6E4-DD284D17FC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07FCA52-EC53-4CD9-8BD6-DCE8EFC9358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{58161133-8D44-4595-9A11-636897E0F6E3}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
   <si>
     <t>4309C</t>
   </si>
@@ -541,11 +541,11 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -870,7 +870,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J12:L16"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,11 +1027,11 @@
       <c r="J6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="21">
-        <v>5557</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>12</v>
+      <c r="K6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1108,11 +1108,11 @@
       <c r="J9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>19</v>
+      <c r="K9" s="22">
+        <v>4750</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1132,15 +1132,6 @@
       <c r="I10" s="19">
         <v>2024</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="22">
-        <v>4750</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1217,15 +1208,9 @@
       <c r="I13" s="19">
         <v>2024</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="27">
-        <v>5352</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1888,31 +1873,29 @@
     <hyperlink ref="C27" r:id="rId48" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$3');" xr:uid="{80F07425-B6C3-4840-B6D5-EF423396EF26}"/>
     <hyperlink ref="C28" r:id="rId49" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$59');" xr:uid="{0FB06E6E-D160-4091-B0AD-A8BA65C73BF9}"/>
     <hyperlink ref="C29" r:id="rId50" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$60');" xr:uid="{5C471667-DA68-4023-B6A6-B233197C8B9C}"/>
-    <hyperlink ref="L6" r:id="rId51" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$19');" xr:uid="{05142DDD-1A13-4C8F-85C1-24A5E4920737}"/>
-    <hyperlink ref="L29" r:id="rId52" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$7');" xr:uid="{E78F06F5-F369-435D-B087-D9B381F6BCBC}"/>
-    <hyperlink ref="L4" r:id="rId53" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$67');" xr:uid="{BD07F4A8-065E-4D43-AB49-74782B2E91CF}"/>
-    <hyperlink ref="L19" r:id="rId54" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$24');" xr:uid="{02228784-826C-4804-8CBF-B03D86B31F86}"/>
-    <hyperlink ref="L12" r:id="rId55" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$11');" xr:uid="{1C4C8FEF-98F5-477B-88FE-8AF6CE2A9613}"/>
-    <hyperlink ref="L15" r:id="rId56" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$60');" xr:uid="{B7215959-433B-4EA0-9883-1FCC69F69114}"/>
-    <hyperlink ref="L14" r:id="rId57" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$59');" xr:uid="{2FF7ED6C-6EC6-405E-A3E4-BB26F73A2BFB}"/>
-    <hyperlink ref="L8" r:id="rId58" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$3');" xr:uid="{06ECA70A-A916-48A3-BC89-90C7CB1AEA33}"/>
-    <hyperlink ref="L9" r:id="rId59" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$48');" xr:uid="{AEF42D56-2174-4F46-AA67-4A584B658534}"/>
-    <hyperlink ref="L7" r:id="rId60" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$35');" xr:uid="{9044B2E4-8AB8-413B-A8AA-5774FD38490A}"/>
-    <hyperlink ref="L11" r:id="rId61" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$36');" xr:uid="{D336C677-B77D-4528-9159-463FDE13AFA7}"/>
-    <hyperlink ref="L10" r:id="rId62" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$49');" xr:uid="{DDDA517D-77C9-44FB-B700-375BA81C2FA5}"/>
-    <hyperlink ref="L3" r:id="rId63" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$43');" xr:uid="{F568CA9F-87DD-4880-8954-623662608D97}"/>
-    <hyperlink ref="L17" r:id="rId64" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$16');" xr:uid="{F7C8F0EE-FD40-4009-A7A6-950AE10AD266}"/>
-    <hyperlink ref="L13" r:id="rId65" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$14');" xr:uid="{627EB697-EAE4-44BC-9F21-C925BE291EC9}"/>
-    <hyperlink ref="L5" r:id="rId66" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$68');" xr:uid="{3EBFDF43-8CFF-4247-907C-9045CE9CE79D}"/>
-    <hyperlink ref="L16" r:id="rId67" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$12');" xr:uid="{AD174EF5-BB81-4F26-98DD-7BE2AAF87D02}"/>
-    <hyperlink ref="L18" r:id="rId68" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$21');" xr:uid="{C65C0B0E-8A9C-47BF-8FA1-95C7805374C9}"/>
-    <hyperlink ref="E35" r:id="rId69" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$16');" xr:uid="{DB513DDE-2EBD-4BF0-935F-D8394CAA3AAC}"/>
-    <hyperlink ref="E34" r:id="rId70" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$14');" xr:uid="{9A01AA0D-09A5-47EE-A05D-2E842BE22D34}"/>
-    <hyperlink ref="E33" r:id="rId71" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$12');" xr:uid="{2B4C70AD-ABDF-4D7A-B329-98CA181F55FD}"/>
-    <hyperlink ref="E32" r:id="rId72" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$7');" xr:uid="{600262B9-E75D-4739-9B99-4DE893EEFB88}"/>
+    <hyperlink ref="L29" r:id="rId51" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$7');" xr:uid="{E78F06F5-F369-435D-B087-D9B381F6BCBC}"/>
+    <hyperlink ref="L4" r:id="rId52" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$67');" xr:uid="{BD07F4A8-065E-4D43-AB49-74782B2E91CF}"/>
+    <hyperlink ref="L19" r:id="rId53" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$24');" xr:uid="{02228784-826C-4804-8CBF-B03D86B31F86}"/>
+    <hyperlink ref="L12" r:id="rId54" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$11');" xr:uid="{1C4C8FEF-98F5-477B-88FE-8AF6CE2A9613}"/>
+    <hyperlink ref="L15" r:id="rId55" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$60');" xr:uid="{B7215959-433B-4EA0-9883-1FCC69F69114}"/>
+    <hyperlink ref="L14" r:id="rId56" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$59');" xr:uid="{2FF7ED6C-6EC6-405E-A3E4-BB26F73A2BFB}"/>
+    <hyperlink ref="L8" r:id="rId57" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$3');" xr:uid="{06ECA70A-A916-48A3-BC89-90C7CB1AEA33}"/>
+    <hyperlink ref="L6" r:id="rId58" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$48');" xr:uid="{AEF42D56-2174-4F46-AA67-4A584B658534}"/>
+    <hyperlink ref="L7" r:id="rId59" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$35');" xr:uid="{9044B2E4-8AB8-413B-A8AA-5774FD38490A}"/>
+    <hyperlink ref="L11" r:id="rId60" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$36');" xr:uid="{D336C677-B77D-4528-9159-463FDE13AFA7}"/>
+    <hyperlink ref="L9" r:id="rId61" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$49');" xr:uid="{DDDA517D-77C9-44FB-B700-375BA81C2FA5}"/>
+    <hyperlink ref="L3" r:id="rId62" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$43');" xr:uid="{F568CA9F-87DD-4880-8954-623662608D97}"/>
+    <hyperlink ref="L17" r:id="rId63" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$16');" xr:uid="{F7C8F0EE-FD40-4009-A7A6-950AE10AD266}"/>
+    <hyperlink ref="L5" r:id="rId64" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$68');" xr:uid="{3EBFDF43-8CFF-4247-907C-9045CE9CE79D}"/>
+    <hyperlink ref="L16" r:id="rId65" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$12');" xr:uid="{AD174EF5-BB81-4F26-98DD-7BE2AAF87D02}"/>
+    <hyperlink ref="L18" r:id="rId66" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$21');" xr:uid="{C65C0B0E-8A9C-47BF-8FA1-95C7805374C9}"/>
+    <hyperlink ref="E35" r:id="rId67" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$16');" xr:uid="{DB513DDE-2EBD-4BF0-935F-D8394CAA3AAC}"/>
+    <hyperlink ref="E34" r:id="rId68" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$14');" xr:uid="{9A01AA0D-09A5-47EE-A05D-2E842BE22D34}"/>
+    <hyperlink ref="E33" r:id="rId69" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$12');" xr:uid="{2B4C70AD-ABDF-4D7A-B329-98CA181F55FD}"/>
+    <hyperlink ref="E32" r:id="rId70" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$7');" xr:uid="{600262B9-E75D-4739-9B99-4DE893EEFB88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId73"/>
+  <pageSetup orientation="portrait" r:id="rId71"/>
 </worksheet>
 </file>
 
@@ -1932,140 +1915,140 @@
       </c>
     </row>
     <row r="4" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28" t="s">
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28" t="s">
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28" t="s">
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
     </row>
     <row r="5" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
     </row>
     <row r="7" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="5:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="29">
+      <c r="E8" s="28">
         <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="9" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>0.375</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="L9" s="30" t="s">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="L9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30" t="s">
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
     </row>
     <row r="11" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
     </row>
     <row r="12" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <v>0.4375</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>0.45833333333333298</v>
       </c>
       <c r="F13" t="s">
@@ -2074,219 +2057,227 @@
       <c r="L13" t="s">
         <v>63</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>0.47916666666666702</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>0.5</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30" t="s">
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30" t="s">
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <v>0.52083333333333304</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>0.54166666666666696</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="5:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <v>0.5625</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="5:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="29">
+      <c r="E19" s="28">
         <v>0.58333333333333304</v>
       </c>
     </row>
     <row r="20" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="29">
+      <c r="E20" s="28">
         <v>0.60416666666666696</v>
       </c>
     </row>
     <row r="21" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <v>0.625</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="L21" s="30" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="L21" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="s">
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
     </row>
     <row r="22" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="29">
+      <c r="E22" s="28">
         <v>0.64583333333333404</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="5:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="29">
+      <c r="E23" s="28">
         <v>0.66666666666666696</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="29">
+      <c r="E24" s="28">
         <v>0.6875</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="29">
+      <c r="E25" s="28">
         <v>0.70833333333333404</v>
       </c>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
     </row>
     <row r="26" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="29">
+      <c r="E26" s="28">
         <v>0.72916666666666696</v>
       </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
     </row>
     <row r="27" spans="5:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="29">
+      <c r="E27" s="28">
         <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E28" s="29">
+      <c r="E28" s="28">
         <v>0.77083333333333404</v>
       </c>
     </row>
     <row r="29" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="29">
+      <c r="E29" s="28">
         <v>0.79166666666666696</v>
       </c>
     </row>
     <row r="30" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E30" s="29">
+      <c r="E30" s="28">
         <v>0.812500000000001</v>
       </c>
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E31" s="29">
+      <c r="E31" s="28">
         <v>0.83333333333333404</v>
       </c>
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E32" s="29">
+      <c r="E32" s="28">
         <v>0.85416666666666696</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <v>0.875000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F9:H12"/>
+    <mergeCell ref="L9:N12"/>
+    <mergeCell ref="O9:Q14"/>
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="I4:K6"/>
+    <mergeCell ref="L4:N6"/>
+    <mergeCell ref="O4:Q6"/>
+    <mergeCell ref="R4:T6"/>
     <mergeCell ref="F15:H18"/>
     <mergeCell ref="I15:K18"/>
     <mergeCell ref="L15:N18"/>
@@ -2294,14 +2285,6 @@
     <mergeCell ref="F21:H24"/>
     <mergeCell ref="L21:N24"/>
     <mergeCell ref="O21:Q26"/>
-    <mergeCell ref="F4:H6"/>
-    <mergeCell ref="I4:K6"/>
-    <mergeCell ref="L4:N6"/>
-    <mergeCell ref="O4:Q6"/>
-    <mergeCell ref="R4:T6"/>
-    <mergeCell ref="F9:H12"/>
-    <mergeCell ref="L9:N12"/>
-    <mergeCell ref="O9:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schedule Plan.xlsx
+++ b/Schedule Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef\Desktop\UCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07FCA52-EC53-4CD9-8BD6-DCE8EFC9358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274A9919-3808-432E-A94F-0001D4815A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{58161133-8D44-4595-9A11-636897E0F6E3}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{58161133-8D44-4595-9A11-636897E0F6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="69">
   <si>
     <t>4309C</t>
   </si>
@@ -869,22 +869,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F484F19D-B788-430C-9DC5-5772F512A25E}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="40.42578125" customWidth="1"/>
-    <col min="12" max="12" width="63.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.15234375" customWidth="1"/>
+    <col min="5" max="5" width="46.3046875" customWidth="1"/>
+    <col min="8" max="8" width="9.15234375" customWidth="1"/>
+    <col min="11" max="11" width="40.3828125" customWidth="1"/>
+    <col min="12" max="12" width="63.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -895,7 +895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -921,7 +921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -947,7 +947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -976,7 +976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1210,9 +1210,11 @@
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="27"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1323,11 +1325,9 @@
       <c r="K17" s="25">
         <v>5378</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1375,14 +1375,12 @@
       <c r="K19" s="25">
         <v>6558</v>
       </c>
-      <c r="L19" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="L19" s="12"/>
       <c r="M19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1400,7 +1398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1418,7 +1416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1434,7 @@
         <v>$5,731.56</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>$10,350.20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1466,7 +1464,7 @@
         <v>$16,081.76</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1477,7 +1475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1488,7 +1486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1499,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1510,7 +1508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -1536,7 +1534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>6</v>
       </c>
@@ -1596,7 +1594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1634,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>6</v>
       </c>
@@ -1656,7 +1654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:11" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>6</v>
       </c>
@@ -1676,7 +1674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:11" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +1696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
         <v>6</v>
       </c>
@@ -1709,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
         <v>6</v>
       </c>
@@ -1720,12 +1718,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.4">
       <c r="I45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
         <v>44</v>
       </c>
@@ -1745,7 +1743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
         <v>46</v>
       </c>
@@ -1765,7 +1763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
         <v>17</v>
       </c>
@@ -1785,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
         <v>7</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
         <v>6</v>
       </c>
@@ -1875,27 +1873,26 @@
     <hyperlink ref="C29" r:id="rId50" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$60');" xr:uid="{5C471667-DA68-4023-B6A6-B233197C8B9C}"/>
     <hyperlink ref="L29" r:id="rId51" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$7');" xr:uid="{E78F06F5-F369-435D-B087-D9B381F6BCBC}"/>
     <hyperlink ref="L4" r:id="rId52" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$67');" xr:uid="{BD07F4A8-065E-4D43-AB49-74782B2E91CF}"/>
-    <hyperlink ref="L19" r:id="rId53" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$24');" xr:uid="{02228784-826C-4804-8CBF-B03D86B31F86}"/>
-    <hyperlink ref="L12" r:id="rId54" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$11');" xr:uid="{1C4C8FEF-98F5-477B-88FE-8AF6CE2A9613}"/>
-    <hyperlink ref="L15" r:id="rId55" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$60');" xr:uid="{B7215959-433B-4EA0-9883-1FCC69F69114}"/>
-    <hyperlink ref="L14" r:id="rId56" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$59');" xr:uid="{2FF7ED6C-6EC6-405E-A3E4-BB26F73A2BFB}"/>
-    <hyperlink ref="L8" r:id="rId57" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$3');" xr:uid="{06ECA70A-A916-48A3-BC89-90C7CB1AEA33}"/>
-    <hyperlink ref="L6" r:id="rId58" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$48');" xr:uid="{AEF42D56-2174-4F46-AA67-4A584B658534}"/>
-    <hyperlink ref="L7" r:id="rId59" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$35');" xr:uid="{9044B2E4-8AB8-413B-A8AA-5774FD38490A}"/>
-    <hyperlink ref="L11" r:id="rId60" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$36');" xr:uid="{D336C677-B77D-4528-9159-463FDE13AFA7}"/>
-    <hyperlink ref="L9" r:id="rId61" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$49');" xr:uid="{DDDA517D-77C9-44FB-B700-375BA81C2FA5}"/>
-    <hyperlink ref="L3" r:id="rId62" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$43');" xr:uid="{F568CA9F-87DD-4880-8954-623662608D97}"/>
-    <hyperlink ref="L17" r:id="rId63" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$16');" xr:uid="{F7C8F0EE-FD40-4009-A7A6-950AE10AD266}"/>
-    <hyperlink ref="L5" r:id="rId64" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$68');" xr:uid="{3EBFDF43-8CFF-4247-907C-9045CE9CE79D}"/>
-    <hyperlink ref="L16" r:id="rId65" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$12');" xr:uid="{AD174EF5-BB81-4F26-98DD-7BE2AAF87D02}"/>
-    <hyperlink ref="L18" r:id="rId66" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$21');" xr:uid="{C65C0B0E-8A9C-47BF-8FA1-95C7805374C9}"/>
-    <hyperlink ref="E35" r:id="rId67" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$16');" xr:uid="{DB513DDE-2EBD-4BF0-935F-D8394CAA3AAC}"/>
-    <hyperlink ref="E34" r:id="rId68" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$14');" xr:uid="{9A01AA0D-09A5-47EE-A05D-2E842BE22D34}"/>
-    <hyperlink ref="E33" r:id="rId69" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$12');" xr:uid="{2B4C70AD-ABDF-4D7A-B329-98CA181F55FD}"/>
-    <hyperlink ref="E32" r:id="rId70" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$7');" xr:uid="{600262B9-E75D-4739-9B99-4DE893EEFB88}"/>
+    <hyperlink ref="L12" r:id="rId53" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$11');" xr:uid="{1C4C8FEF-98F5-477B-88FE-8AF6CE2A9613}"/>
+    <hyperlink ref="L15" r:id="rId54" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$60');" xr:uid="{B7215959-433B-4EA0-9883-1FCC69F69114}"/>
+    <hyperlink ref="L14" r:id="rId55" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$59');" xr:uid="{2FF7ED6C-6EC6-405E-A3E4-BB26F73A2BFB}"/>
+    <hyperlink ref="L8" r:id="rId56" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$3');" xr:uid="{06ECA70A-A916-48A3-BC89-90C7CB1AEA33}"/>
+    <hyperlink ref="L6" r:id="rId57" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$48');" xr:uid="{AEF42D56-2174-4F46-AA67-4A584B658534}"/>
+    <hyperlink ref="L7" r:id="rId58" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$35');" xr:uid="{9044B2E4-8AB8-413B-A8AA-5774FD38490A}"/>
+    <hyperlink ref="L11" r:id="rId59" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$36');" xr:uid="{D336C677-B77D-4528-9159-463FDE13AFA7}"/>
+    <hyperlink ref="L9" r:id="rId60" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$49');" xr:uid="{DDDA517D-77C9-44FB-B700-375BA81C2FA5}"/>
+    <hyperlink ref="L3" r:id="rId61" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$43');" xr:uid="{F568CA9F-87DD-4880-8954-623662608D97}"/>
+    <hyperlink ref="L5" r:id="rId62" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$68');" xr:uid="{3EBFDF43-8CFF-4247-907C-9045CE9CE79D}"/>
+    <hyperlink ref="L16" r:id="rId63" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$12');" xr:uid="{AD174EF5-BB81-4F26-98DD-7BE2AAF87D02}"/>
+    <hyperlink ref="L18" r:id="rId64" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$21');" xr:uid="{C65C0B0E-8A9C-47BF-8FA1-95C7805374C9}"/>
+    <hyperlink ref="E35" r:id="rId65" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$16');" xr:uid="{DB513DDE-2EBD-4BF0-935F-D8394CAA3AAC}"/>
+    <hyperlink ref="E34" r:id="rId66" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$14');" xr:uid="{9A01AA0D-09A5-47EE-A05D-2E842BE22D34}"/>
+    <hyperlink ref="E33" r:id="rId67" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$12');" xr:uid="{2B4C70AD-ABDF-4D7A-B329-98CA181F55FD}"/>
+    <hyperlink ref="E32" r:id="rId68" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$7');" xr:uid="{600262B9-E75D-4739-9B99-4DE893EEFB88}"/>
+    <hyperlink ref="L13" r:id="rId69" display="javascript:submitAction_win0(document.win0,'CRSE_TITLE$16');" xr:uid="{6A8ABD62-BA43-43FF-BEFB-03FE240DFB65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId71"/>
+  <pageSetup orientation="portrait" r:id="rId70"/>
 </worksheet>
 </file>
 
@@ -1907,14 +1904,14 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:20" x14ac:dyDescent="0.4">
       <c r="F2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:20" x14ac:dyDescent="0.4">
       <c r="F4" s="30" t="s">
         <v>56</v>
       </c>
@@ -1941,7 +1938,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:20" x14ac:dyDescent="0.4">
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -1958,7 +1955,7 @@
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:20" x14ac:dyDescent="0.4">
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
@@ -1975,17 +1972,17 @@
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:20" x14ac:dyDescent="0.4">
       <c r="E7" s="28">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="5:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:20" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E8" s="28">
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="9" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E9" s="28">
         <v>0.375</v>
       </c>
@@ -2005,7 +2002,7 @@
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
     </row>
-    <row r="10" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E10" s="28">
         <v>0.39583333333333331</v>
       </c>
@@ -2019,7 +2016,7 @@
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
     </row>
-    <row r="11" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E11" s="28">
         <v>0.41666666666666669</v>
       </c>
@@ -2033,7 +2030,7 @@
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
     </row>
-    <row r="12" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E12" s="28">
         <v>0.4375</v>
       </c>
@@ -2047,7 +2044,7 @@
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
     </row>
-    <row r="13" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E13" s="28">
         <v>0.45833333333333298</v>
       </c>
@@ -2061,7 +2058,7 @@
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
     </row>
-    <row r="14" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E14" s="28">
         <v>0.47916666666666702</v>
       </c>
@@ -2069,7 +2066,7 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E15" s="28">
         <v>0.5</v>
       </c>
@@ -2094,7 +2091,7 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
     </row>
-    <row r="16" spans="5:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:20" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E16" s="28">
         <v>0.52083333333333304</v>
       </c>
@@ -2111,7 +2108,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
     </row>
-    <row r="17" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:17" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E17" s="28">
         <v>0.54166666666666696</v>
       </c>
@@ -2128,7 +2125,7 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
     </row>
-    <row r="18" spans="5:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E18" s="28">
         <v>0.5625</v>
       </c>
@@ -2145,17 +2142,17 @@
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
     </row>
-    <row r="19" spans="5:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:17" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="E19" s="28">
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="20" spans="5:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E20" s="28">
         <v>0.60416666666666696</v>
       </c>
     </row>
-    <row r="21" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:17" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E21" s="28">
         <v>0.625</v>
       </c>
@@ -2175,7 +2172,7 @@
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
     </row>
-    <row r="22" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:17" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E22" s="28">
         <v>0.64583333333333404</v>
       </c>
@@ -2189,7 +2186,7 @@
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
     </row>
-    <row r="23" spans="5:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E23" s="28">
         <v>0.66666666666666696</v>
       </c>
@@ -2203,7 +2200,7 @@
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
     </row>
-    <row r="24" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:17" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E24" s="28">
         <v>0.6875</v>
       </c>
@@ -2217,7 +2214,7 @@
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
     </row>
-    <row r="25" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:17" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E25" s="28">
         <v>0.70833333333333404</v>
       </c>
@@ -2225,7 +2222,7 @@
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
     </row>
-    <row r="26" spans="5:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:17" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E26" s="28">
         <v>0.72916666666666696</v>
       </c>
@@ -2233,43 +2230,51 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
     </row>
-    <row r="27" spans="5:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:17" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="E27" s="28">
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E28" s="28">
         <v>0.77083333333333404</v>
       </c>
     </row>
-    <row r="29" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E29" s="28">
         <v>0.79166666666666696</v>
       </c>
     </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E30" s="28">
         <v>0.812500000000001</v>
       </c>
     </row>
-    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E31" s="28">
         <v>0.83333333333333404</v>
       </c>
     </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:17" x14ac:dyDescent="0.4">
       <c r="E32" s="28">
         <v>0.85416666666666696</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E33" s="28">
         <v>0.875000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="L21:N24"/>
+    <mergeCell ref="O21:Q26"/>
+    <mergeCell ref="R4:T6"/>
+    <mergeCell ref="F15:H18"/>
+    <mergeCell ref="I15:K18"/>
+    <mergeCell ref="L15:N18"/>
+    <mergeCell ref="O15:Q18"/>
     <mergeCell ref="F9:H12"/>
     <mergeCell ref="L9:N12"/>
     <mergeCell ref="O9:Q14"/>
@@ -2277,14 +2282,6 @@
     <mergeCell ref="I4:K6"/>
     <mergeCell ref="L4:N6"/>
     <mergeCell ref="O4:Q6"/>
-    <mergeCell ref="R4:T6"/>
-    <mergeCell ref="F15:H18"/>
-    <mergeCell ref="I15:K18"/>
-    <mergeCell ref="L15:N18"/>
-    <mergeCell ref="O15:Q18"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="L21:N24"/>
-    <mergeCell ref="O21:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
